--- a/Overview - Gambling Companies.xlsx
+++ b/Overview - Gambling Companies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2873B9C6-3396-456B-A251-63B5890249FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BA52B8-9B89-4D5A-B68A-CCD901B85311}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2319,22 +2319,22 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>12.37</v>
+            <v>11.26</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>5409.8957999999993</v>
+            <v>5054.0311260999997</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>523.80000000000018</v>
+            <v>132.2170000000001</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>4886.0957999999991</v>
+            <v>4921.8141261000001</v>
           </cell>
         </row>
       </sheetData>
@@ -2400,7 +2400,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2412,66 +2412,64 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
+      <sheetName val="Broker Ratings"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>1.5720000000000001</v>
+            <v>0.99</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>585.9774655440001</v>
+            <v>402.84614304000002</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>212.148</v>
+            <v>-1624</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>373.82946554400007</v>
+            <v>2026.84614304</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="17">
-          <cell r="P17">
-            <v>11.300000000000052</v>
-          </cell>
+          <cell r="P17"/>
           <cell r="Q17">
-            <v>68.900000000000048</v>
+            <v>94.80000000000004</v>
           </cell>
         </row>
         <row r="21">
           <cell r="Q21">
-            <v>0.65064789307213555</v>
+            <v>0.74306326304106551</v>
           </cell>
         </row>
         <row r="22">
           <cell r="Q22">
-            <v>8.8766452402816096E-2</v>
+            <v>0.18442471328153912</v>
           </cell>
         </row>
         <row r="23">
           <cell r="Q23">
-            <v>7.0298949086827919E-2</v>
+            <v>0.17536071032186465</v>
           </cell>
         </row>
         <row r="26">
           <cell r="O26">
-            <v>3.6440991490935826E-2</v>
+            <v>-4.257380772142294E-2</v>
           </cell>
-          <cell r="P26">
-            <v>0.51650901302873486</v>
-          </cell>
-          <cell r="Q26">
-            <v>0.15346592915146529</v>
+          <cell r="P26"/>
+          <cell r="Q26" t="str">
+            <v>-</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4811,7 +4809,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5095,19 +5093,19 @@
       </c>
       <c r="F5" s="112">
         <f>[3]Main!$C$6</f>
-        <v>12.37</v>
+        <v>11.26</v>
       </c>
       <c r="G5" s="124">
         <f>[3]Main!$C$8*G16</f>
-        <v>4490.2135139999991</v>
+        <v>4194.8458346629996</v>
       </c>
       <c r="H5" s="124">
         <f>[3]Main!$C$11*G16</f>
-        <v>434.75400000000013</v>
+        <v>109.74011000000007</v>
       </c>
       <c r="I5" s="124">
         <f>[3]Main!$C$12*G16</f>
-        <v>4055.4595139999992</v>
+        <v>4085.1057246629998</v>
       </c>
       <c r="J5" s="125" t="s">
         <v>196</v>
@@ -5218,62 +5216,62 @@
       </c>
       <c r="F7" s="112">
         <f>[5]Main!$C$6</f>
-        <v>1.5720000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="G7" s="124">
         <f>[5]Main!$C$8</f>
-        <v>585.9774655440001</v>
+        <v>402.84614304000002</v>
       </c>
       <c r="H7" s="124">
         <f>[5]Main!$C$11</f>
-        <v>212.148</v>
+        <v>-1624</v>
       </c>
       <c r="I7" s="124">
         <f>[5]Main!$C$12</f>
-        <v>373.82946554400007</v>
+        <v>2026.84614304</v>
       </c>
       <c r="J7" s="125" t="s">
         <v>16</v>
       </c>
       <c r="K7" s="123">
         <f>$I$7/M7</f>
-        <v>6.5369658409078957</v>
-      </c>
-      <c r="L7" s="123">
+        <v>25.759317561893134</v>
+      </c>
+      <c r="L7" s="123" t="e">
         <f>$I$7/N7</f>
-        <v>39.858136852969231</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M7" s="122">
         <f>'[5]Financial Model'!$Q$17*G16</f>
-        <v>57.18700000000004</v>
+        <v>78.684000000000026</v>
       </c>
       <c r="N7" s="122">
         <f>'[5]Financial Model'!$P$17*G16</f>
-        <v>9.3790000000000422</v>
+        <v>0</v>
       </c>
       <c r="O7" s="116">
         <f>'[5]Financial Model'!$Q$21</f>
-        <v>0.65064789307213555</v>
+        <v>0.74306326304106551</v>
       </c>
       <c r="P7" s="116">
         <f>'[5]Financial Model'!$Q$22</f>
-        <v>8.8766452402816096E-2</v>
+        <v>0.18442471328153912</v>
       </c>
       <c r="Q7" s="116">
         <f>'[5]Financial Model'!$Q$23</f>
-        <v>7.0298949086827919E-2</v>
-      </c>
-      <c r="R7" s="116">
+        <v>0.17536071032186465</v>
+      </c>
+      <c r="R7" s="116" t="str">
         <f>'[5]Financial Model'!$Q$26</f>
-        <v>0.15346592915146529</v>
+        <v>-</v>
       </c>
       <c r="S7" s="116">
         <f>'[5]Financial Model'!$P$26</f>
-        <v>0.51650901302873486</v>
+        <v>0</v>
       </c>
       <c r="T7" s="121">
         <f>'[5]Financial Model'!$O$26</f>
-        <v>3.6440991490935826E-2</v>
+        <v>-4.257380772142294E-2</v>
       </c>
       <c r="U7" s="113" t="s">
         <v>180</v>

--- a/Overview - Gambling Companies.xlsx
+++ b/Overview - Gambling Companies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BA52B8-9B89-4D5A-B68A-CCD901B85311}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF4ADD2-3E39-4C77-9929-EA8F8703A00E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2412,18 +2412,19 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
+      <sheetName val="Historical Projections"/>
       <sheetName val="Broker Ratings"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>0.99</v>
+            <v>0.78</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>402.84614304000002</v>
+            <v>317.39393088000003</v>
           </cell>
         </row>
         <row r="11">
@@ -2433,13 +2434,12 @@
         </row>
         <row r="12">
           <cell r="C12">
-            <v>2026.84614304</v>
+            <v>1941.39393088</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="17">
-          <cell r="P17"/>
           <cell r="Q17">
             <v>94.80000000000004</v>
           </cell>
@@ -2463,13 +2463,13 @@
           <cell r="O26">
             <v>-4.257380772142294E-2</v>
           </cell>
-          <cell r="P26"/>
           <cell r="Q26" t="str">
             <v>-</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4809,7 +4809,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5216,11 +5216,11 @@
       </c>
       <c r="F7" s="112">
         <f>[5]Main!$C$6</f>
-        <v>0.99</v>
+        <v>0.78</v>
       </c>
       <c r="G7" s="124">
         <f>[5]Main!$C$8</f>
-        <v>402.84614304000002</v>
+        <v>317.39393088000003</v>
       </c>
       <c r="H7" s="124">
         <f>[5]Main!$C$11</f>
@@ -5228,14 +5228,14 @@
       </c>
       <c r="I7" s="124">
         <f>[5]Main!$C$12</f>
-        <v>2026.84614304</v>
+        <v>1941.39393088</v>
       </c>
       <c r="J7" s="125" t="s">
         <v>16</v>
       </c>
       <c r="K7" s="123">
         <f>$I$7/M7</f>
-        <v>25.759317561893134</v>
+        <v>24.673299919678705</v>
       </c>
       <c r="L7" s="123" t="e">
         <f>$I$7/N7</f>
